--- a/AICE/Presupuesto.xlsx
+++ b/AICE/Presupuesto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7455"/>
+    <workbookView windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+  <si>
+    <t>Connector Header Through Hole 50 position 0.100" (2.54mm)</t>
+  </si>
   <si>
     <t>Componente</t>
   </si>
@@ -89,6 +92,148 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/es/w%C3%BCrth-elektronik/693072010801/732-3820-2-ND/3124584</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+W25Q128JVSIQ TR </t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/winbond-electronics/W25Q128JVSIQ-TR/W25Q128JVSIQCT-ND/7087212</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Amphenol-FCI/77313-118-50LF?qs=sGAEpiMZZMvlX3nhDDO4ABd7TNvTgjpYLiqScHLpn0k%3D</t>
+  </si>
+  <si>
+    <t>RBG_LED</t>
+  </si>
+  <si>
+    <t>CREE_PLCC6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/es/cree-inc/CLP6C-FKB-CK1P1G1BB7R3R3/CLP6C-FKB-CK1P1G1BB7R3R3CT-ND/6138635</t>
+  </si>
+  <si>
+    <t>R 2,2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-072K2L </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/es/yageo/RC0805FR-072K2L/311-2-20KCRCT-ND/730623</t>
+  </si>
+  <si>
+    <t>R 10 k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RC0603JR-0710KL </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/es/yageo/RC0603JR-0710KL/311-10KGRCT-ND/729647</t>
+  </si>
+  <si>
+    <t>R 100</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Susumu/RGT1608P-101-B-T5?qs=sGAEpiMZZMu61qfTUdNhG7aYZMPoYcGCC6oJvmQvc5Vy%2FrPDOnkQhA%3D%3D</t>
+  </si>
+  <si>
+    <t>C 0,1 u FILM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECP-U1C104MA5 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ECP-U1C104MA5/PCF1126CT-ND/285453</t>
+  </si>
+  <si>
+    <t>C 0,01 u CERAMIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C0603C103KARACAUTO </t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/TDK/CGA1A2X7R1A103K030BA?qs=sGAEpiMZZMs0AnBnWHyRQL8L3bkL%252BvtyHc83s6JWLJM17Z893Y6AzQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C 33 u CERAMIC</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/TDK/C2012X5R0J336M125AC?qs=sGAEpiMZZMs0AnBnWHyRQFzBYxg9rzNcNpoiI6kZLEA%3D</t>
+  </si>
+  <si>
+    <t>C 220 u Ceramic</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Murata-Electronics/GRM31CC80G227ME11K?qs=sGAEpiMZZMuMW9TJLBQkXvvhL3nVju%2FHGUv83p1arZI%3D</t>
+  </si>
+  <si>
+    <t>C 1 u CERAMIC</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Taiyo-Yuden/UMF212B7105MGHT?qs=sGAEpiMZZMuMW9TJLBQkXhJr1djrFpnnwHDPLd8rYo0%3D</t>
+  </si>
+  <si>
+    <t>C 10 u CERAMIC</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Taiyo-Yuden/TMK212BBJ106MGHT?qs=sGAEpiMZZMuMW9TJLBQkXu0t%252B%2F0Hq%252BBqzjFJbWcL1HY%3D</t>
+  </si>
+  <si>
+    <t>C 1 n CERAMIC</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/TDK/C1608C0G2A102J080AE?qs=sGAEpiMZZMs0AnBnWHyRQN7%2FAA2D2lPPyUdDjIOyEF0rlO7HgrpdJg%3D%3D</t>
+  </si>
+  <si>
+    <t>LED BLUE</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KB-DELPS212-QHRI-24-Z555-10-S?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXwwcjMMWonTAhZIqH765egag%3D%3D</t>
+  </si>
+  <si>
+    <t>LED GREEN</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KG-DELMS122-PHQI-24-E6L6?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXw2hz5dPhSTuoMKPqIbYvs3A%3D%3D</t>
+  </si>
+  <si>
+    <t>LED YELLOW</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KY-DELLS122-KGLH-26?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXwv1i%252BFa1JJszqEvno6qOTvg%3D%3D</t>
+  </si>
+  <si>
+    <t>LED RED</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KR-DELPS122-UHVI-26-H3Q4?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXw4kv80xILcLqjWCSyCkalLg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDBU0520 </t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Comchip-Technology/CDBU0520?qs=sGAEpiMZZMtQ8nqTKtFS%2FEHfgDrd3eF%252BAGtLiIOEHvQ%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASFLMB-24.000MHZ-LC-T </t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/ABRACON/ASFLMB-24000MHZ-LC-T?qs=sGAEpiMZZMt8zWNA7msRCiYMyo2kW7dG0yAA00qmViM%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPC 
+2-84952-4 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/2-84952-4/A100254CT-ND/2180595</t>
   </si>
 </sst>
 </file>
@@ -96,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,8 +271,105 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,96 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -239,18 +391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,187 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,62 +599,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,7 +621,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +630,48 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,147 +684,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,9 +849,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
@@ -1033,51 +1184,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H7"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="13.9" customWidth="1"/>
     <col min="3" max="3" width="9.8" customWidth="1"/>
     <col min="4" max="4" width="12.1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="8:8">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0.67</v>
@@ -1086,22 +1242,22 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>E3*F3</f>
+        <f t="shared" ref="G3:G12" si="0">E3*F3</f>
         <v>0.67</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0.67</v>
@@ -1110,22 +1266,22 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0.47</v>
@@ -1134,22 +1290,22 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -1158,22 +1314,22 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3.2</v>
@@ -1182,11 +1338,371 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" spans="2:8">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1.54</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2.15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0.57</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>805</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="47.25" spans="2:8">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>603</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>603</v>
+      </c>
+      <c r="E13">
+        <v>0.57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>805</v>
+      </c>
+      <c r="E15">
+        <v>0.66</v>
+      </c>
+      <c r="F15">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="63" spans="2:8">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>603</v>
+      </c>
+      <c r="E16">
+        <v>0.12</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>805</v>
+      </c>
+      <c r="E17">
+        <v>0.87</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1206</v>
+      </c>
+      <c r="E18">
+        <v>1.35</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>805</v>
+      </c>
+      <c r="E19">
+        <v>0.21</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>805</v>
+      </c>
+      <c r="E20">
+        <v>0.22</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>603</v>
+      </c>
+      <c r="E21">
+        <v>0.28</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>603</v>
+      </c>
+      <c r="E22">
+        <v>0.49</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>603</v>
+      </c>
+      <c r="E23">
+        <v>0.49</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>603</v>
+      </c>
+      <c r="E24">
+        <v>0.39</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>603</v>
+      </c>
+      <c r="E25">
+        <v>0.41</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <v>603</v>
+      </c>
+      <c r="E26">
+        <v>0.45</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>1.51</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" ht="31.5" spans="2:8">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1.7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1196,6 +1712,24 @@
     <hyperlink ref="H5" r:id="rId3" display="https://co.mouser.com/ProductDetail/Diodes-Incorporated/ZLDO1117G33TA?qs=sGAEpiMZZMsGz1a6aV8DcBIMS7He50odu0jWpm6bNLQ%3D"/>
     <hyperlink ref="H6" r:id="rId4" display="https://www.digikey.com/product-detail/es/molex/0473460001/WM17141TR-ND/1782470"/>
     <hyperlink ref="H7" r:id="rId5" display="https://www.digikey.com/product-detail/es/w%C3%BCrth-elektronik/693072010801/732-3820-2-ND/3124584"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://www.digikey.com/product-detail/en/winbond-electronics/W25Q128JVSIQ-TR/W25Q128JVSIQCT-ND/7087212"/>
+    <hyperlink ref="H9" r:id="rId7" display="https://co.mouser.com/ProductDetail/Amphenol-FCI/77313-118-50LF?qs=sGAEpiMZZMvlX3nhDDO4ABd7TNvTgjpYLiqScHLpn0k%3D"/>
+    <hyperlink ref="H10" r:id="rId8" display="https://www.digikey.com/product-detail/es/cree-inc/CLP6C-FKB-CK1P1G1BB7R3R3/CLP6C-FKB-CK1P1G1BB7R3R3CT-ND/6138635"/>
+    <hyperlink ref="H11" r:id="rId9" display="https://www.digikey.com/product-detail/es/yageo/RC0805FR-072K2L/311-2-20KCRCT-ND/730623"/>
+    <hyperlink ref="H12" r:id="rId10" display="https://www.digikey.com/product-detail/es/yageo/RC0603JR-0710KL/311-10KGRCT-ND/729647"/>
+    <hyperlink ref="H15" r:id="rId11" display="https://www.digikey.com/product-detail/en/panasonic-electronic-components/ECP-U1C104MA5/PCF1126CT-ND/285453"/>
+    <hyperlink ref="H18" r:id="rId12" display="https://co.mouser.com/ProductDetail/Murata-Electronics/GRM31CC80G227ME11K?qs=sGAEpiMZZMuMW9TJLBQkXvvhL3nVju%2FHGUv83p1arZI%3D"/>
+    <hyperlink ref="H19" r:id="rId13" display="https://co.mouser.com/ProductDetail/Taiyo-Yuden/UMF212B7105MGHT?qs=sGAEpiMZZMuMW9TJLBQkXhJr1djrFpnnwHDPLd8rYo0%3D"/>
+    <hyperlink ref="H20" r:id="rId14" display="https://co.mouser.com/ProductDetail/Taiyo-Yuden/TMK212BBJ106MGHT?qs=sGAEpiMZZMuMW9TJLBQkXu0t%252B%2F0Hq%252BBqzjFJbWcL1HY%3D"/>
+    <hyperlink ref="H21" r:id="rId15" display="https://co.mouser.com/ProductDetail/TDK/C1608C0G2A102J080AE?qs=sGAEpiMZZMs0AnBnWHyRQN7%2FAA2D2lPPyUdDjIOyEF0rlO7HgrpdJg%3D%3D"/>
+    <hyperlink ref="H13" r:id="rId16" display="https://co.mouser.com/ProductDetail/Susumu/RGT1608P-101-B-T5?qs=sGAEpiMZZMu61qfTUdNhG7aYZMPoYcGCC6oJvmQvc5Vy%2FrPDOnkQhA%3D%3D"/>
+    <hyperlink ref="H22" r:id="rId17" display="https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KB-DELPS212-QHRI-24-Z555-10-S?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXwwcjMMWonTAhZIqH765egag%3D%3D"/>
+    <hyperlink ref="H23" r:id="rId18" display="https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KG-DELMS122-PHQI-24-E6L6?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXw2hz5dPhSTuoMKPqIbYvs3A%3D%3D"/>
+    <hyperlink ref="H24" r:id="rId19" display="https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KY-DELLS122-KGLH-26?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXwv1i%252BFa1JJszqEvno6qOTvg%3D%3D"/>
+    <hyperlink ref="H25" r:id="rId20" display="https://co.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KR-DELPS122-UHVI-26-H3Q4?qs=sGAEpiMZZMseGfSY3csMkXiJOH5X%252BfXw4kv80xILcLqjWCSyCkalLg%3D%3D"/>
+    <hyperlink ref="H26" r:id="rId21" display="https://co.mouser.com/ProductDetail/Comchip-Technology/CDBU0520?qs=sGAEpiMZZMtQ8nqTKtFS%2FEHfgDrd3eF%252BAGtLiIOEHvQ%3D"/>
+    <hyperlink ref="H27" r:id="rId22" display="https://co.mouser.com/ProductDetail/ABRACON/ASFLMB-24000MHZ-LC-T?qs=sGAEpiMZZMt8zWNA7msRCiYMyo2kW7dG0yAA00qmViM%3D"/>
+    <hyperlink ref="H28" r:id="rId23" display="https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/2-84952-4/A100254CT-ND/2180595"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/AICE/Presupuesto.xlsx
+++ b/AICE/Presupuesto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7905"/>
+    <workbookView windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>Connector Header Through Hole 50 position 0.100" (2.54mm)</t>
   </si>
@@ -234,6 +234,49 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/2-84952-4/A100254CT-ND/2180595</t>
+  </si>
+  <si>
+    <t>Button SMS</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/E-Switch/LL3303F065QG?qs=sGAEpiMZZMvxtGF7dlGNpqqmTFthXBmf4pe9dF4lIR4%3D</t>
+  </si>
+  <si>
+    <t>SP0502BAHTG</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Littelfuse/SP0502BAHTG?qs=sGAEpiMZZMvxHShE6Whpu%252Bv7d4rtV%252B8l6Vf%252BSsjEmCY%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRF2012-900YA </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/es/bourns-inc/SRF2012-900YA/SRF2012-900YADKR-ND/2681279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S8550
+</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/MMSS8550-H-TP?qs=sGAEpiMZZMutXGli8Ay4kImVuyeOoqEYVuBkRSTYiCY%3D</t>
+  </si>
+  <si>
+    <t>FERRITA</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/ProductDetail/Bourns/MH2029-121Y?qs=aqFbwuCjQol7Vp3nXKKAXw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://co.mouser.com/datasheet/2/348/sa5m-1143841.pdf</t>
+  </si>
+  <si>
+    <t>DVP Connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex/5022442430/WM14450DKR-ND/6133348</t>
   </si>
 </sst>
 </file>
@@ -241,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,8 +306,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +353,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -302,22 +368,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,13 +407,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -355,39 +421,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,6 +659,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -699,147 +727,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +903,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1184,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1325,7 +1371,7 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
@@ -1503,7 +1549,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D16">
@@ -1684,12 +1730,12 @@
       <c r="E27">
         <v>1.51</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" ht="31.5" spans="2:8">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D28" t="s">
@@ -1703,6 +1749,107 @@
       </c>
       <c r="H28" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>0.66</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0.41</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" spans="2:8">
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>0.19</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>805</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>1.52</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1730,6 +1877,13 @@
     <hyperlink ref="H26" r:id="rId21" display="https://co.mouser.com/ProductDetail/Comchip-Technology/CDBU0520?qs=sGAEpiMZZMtQ8nqTKtFS%2FEHfgDrd3eF%252BAGtLiIOEHvQ%3D"/>
     <hyperlink ref="H27" r:id="rId22" display="https://co.mouser.com/ProductDetail/ABRACON/ASFLMB-24000MHZ-LC-T?qs=sGAEpiMZZMt8zWNA7msRCiYMyo2kW7dG0yAA00qmViM%3D"/>
     <hyperlink ref="H28" r:id="rId23" display="https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/2-84952-4/A100254CT-ND/2180595"/>
+    <hyperlink ref="H29" r:id="rId24" display="https://co.mouser.com/ProductDetail/E-Switch/LL3303F065QG?qs=sGAEpiMZZMvxtGF7dlGNpqqmTFthXBmf4pe9dF4lIR4%3D" tooltip="https://co.mouser.com/ProductDetail/E-Switch/LL3303F065QG?qs=sGAEpiMZZMvxtGF7dlGNpqqmTFthXBmf4pe9dF4lIR4%3D"/>
+    <hyperlink ref="H30" r:id="rId25" display="https://co.mouser.com/ProductDetail/Littelfuse/SP0502BAHTG?qs=sGAEpiMZZMvxHShE6Whpu%252Bv7d4rtV%252B8l6Vf%252BSsjEmCY%3D"/>
+    <hyperlink ref="H31" r:id="rId26" display="https://www.digikey.com/product-detail/es/bourns-inc/SRF2012-900YA/SRF2012-900YADKR-ND/2681279"/>
+    <hyperlink ref="H32" r:id="rId27" display="https://co.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/MMSS8550-H-TP?qs=sGAEpiMZZMutXGli8Ay4kImVuyeOoqEYVuBkRSTYiCY%3D"/>
+    <hyperlink ref="H33" r:id="rId28" display="https://co.mouser.com/ProductDetail/Bourns/MH2029-121Y?qs=aqFbwuCjQol7Vp3nXKKAXw%3D%3D"/>
+    <hyperlink ref="H34" r:id="rId29" display="https://co.mouser.com/datasheet/2/348/sa5m-1143841.pdf"/>
+    <hyperlink ref="H35" r:id="rId30" display="https://www.digikey.com/product-detail/en/molex/5022442430/WM14450DKR-ND/6133348"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
